--- a/code/ch8-case-study/data/processed/customer_rep_data.xlsx
+++ b/code/ch8-case-study/data/processed/customer_rep_data.xlsx
@@ -64,6 +64,66 @@
     <t>Vision People Solutions</t>
   </si>
   <si>
+    <t>Studio Pacific Galaxy</t>
+  </si>
+  <si>
+    <t>Virtual Vision Data</t>
+  </si>
+  <si>
+    <t>Internet Hill Systems</t>
+  </si>
+  <si>
+    <t>Net Electronic</t>
+  </si>
+  <si>
+    <t>Innovation Net</t>
+  </si>
+  <si>
+    <t>Solutions Pacific</t>
+  </si>
+  <si>
+    <t>Technology Net Star</t>
+  </si>
+  <si>
+    <t>Solutions Hill Hardware</t>
+  </si>
+  <si>
+    <t>Net Building</t>
+  </si>
+  <si>
+    <t>Hill Telecom Bell</t>
+  </si>
+  <si>
+    <t>Data Solutions</t>
+  </si>
+  <si>
+    <t>Architecture Application</t>
+  </si>
+  <si>
+    <t>Frontier North Universal</t>
+  </si>
+  <si>
+    <t>Federated Data Star</t>
+  </si>
+  <si>
+    <t>Interactive Bell</t>
+  </si>
+  <si>
+    <t>Omega Research Data</t>
+  </si>
+  <si>
+    <t>Telecom North Resource</t>
+  </si>
+  <si>
+    <t>Frontier Architecture</t>
+  </si>
+  <si>
+    <t>Contract Solutions Resource</t>
+  </si>
+  <si>
+    <t>Atlantic Application Star</t>
+  </si>
+  <si>
     <t>East Design Hill</t>
   </si>
   <si>
@@ -73,10 +133,40 @@
     <t>Solutions Universal</t>
   </si>
   <si>
-    <t>Studio Pacific Galaxy</t>
-  </si>
-  <si>
-    <t>Virtual Vision Data</t>
+    <t>Pacific Hill Application</t>
+  </si>
+  <si>
+    <t>Hill Contract</t>
+  </si>
+  <si>
+    <t>Resource Adventure Internet</t>
+  </si>
+  <si>
+    <t>Software Bell Technology</t>
+  </si>
+  <si>
+    <t>Speed Resource Vision</t>
+  </si>
+  <si>
+    <t>Alpha Electronics</t>
+  </si>
+  <si>
+    <t>West Max Hardware</t>
+  </si>
+  <si>
+    <t>Solutions North</t>
+  </si>
+  <si>
+    <t>Electronic Max North</t>
+  </si>
+  <si>
+    <t>Signal Hill Bell</t>
+  </si>
+  <si>
+    <t>Signal Innovation</t>
+  </si>
+  <si>
+    <t>Advanced Alpha Federated</t>
   </si>
   <si>
     <t>Galaxy Building</t>
@@ -85,132 +175,42 @@
     <t>Resource Innovation Future</t>
   </si>
   <si>
-    <t>Internet Hill Systems</t>
-  </si>
-  <si>
-    <t>Pacific Hill Application</t>
-  </si>
-  <si>
-    <t>Hill Contract</t>
-  </si>
-  <si>
-    <t>Resource Adventure Internet</t>
-  </si>
-  <si>
-    <t>Net Electronic</t>
-  </si>
-  <si>
-    <t>Software Bell Technology</t>
-  </si>
-  <si>
-    <t>Innovation Net</t>
-  </si>
-  <si>
-    <t>Solutions Pacific</t>
+    <t>Federated Virtual Star</t>
+  </si>
+  <si>
+    <t>Bell Frontier Resource</t>
+  </si>
+  <si>
+    <t>South Speed East</t>
   </si>
   <si>
     <t>Innovation Software Net</t>
   </si>
   <si>
-    <t>Technology Net Star</t>
-  </si>
-  <si>
-    <t>Solutions Hill Hardware</t>
-  </si>
-  <si>
-    <t>Net Building</t>
-  </si>
-  <si>
-    <t>Federated Virtual Star</t>
-  </si>
-  <si>
-    <t>Bell Frontier Resource</t>
-  </si>
-  <si>
-    <t>Hill Telecom Bell</t>
-  </si>
-  <si>
-    <t>Data Solutions</t>
-  </si>
-  <si>
     <t>Venture Construction</t>
   </si>
   <si>
     <t>Analysis Future Provider</t>
   </si>
   <si>
-    <t>Architecture Application</t>
-  </si>
-  <si>
-    <t>Speed Resource Vision</t>
-  </si>
-  <si>
-    <t>Alpha Electronics</t>
-  </si>
-  <si>
-    <t>West Max Hardware</t>
-  </si>
-  <si>
-    <t>Solutions North</t>
-  </si>
-  <si>
-    <t>Frontier North Universal</t>
-  </si>
-  <si>
-    <t>Federated Data Star</t>
-  </si>
-  <si>
-    <t>Interactive Bell</t>
-  </si>
-  <si>
-    <t>Omega Research Data</t>
-  </si>
-  <si>
     <t>Analysis Universal</t>
   </si>
   <si>
-    <t>South Speed East</t>
-  </si>
-  <si>
     <t>Innovation Speed</t>
   </si>
   <si>
-    <t>Telecom North Resource</t>
-  </si>
-  <si>
-    <t>Frontier Architecture</t>
-  </si>
-  <si>
-    <t>Electronic Max North</t>
-  </si>
-  <si>
-    <t>Signal Hill Bell</t>
-  </si>
-  <si>
-    <t>Signal Innovation</t>
-  </si>
-  <si>
-    <t>Contract Solutions Resource</t>
-  </si>
-  <si>
     <t>Telecom Medicine Design</t>
   </si>
   <si>
-    <t>Advanced Alpha Federated</t>
-  </si>
-  <si>
-    <t>Atlantic Application Star</t>
-  </si>
-  <si>
     <t>retail</t>
   </si>
   <si>
+    <t>partner</t>
+  </si>
+  <si>
     <t>reseller</t>
   </si>
   <si>
-    <t>partner</t>
-  </si>
-  <si>
     <t>22910</t>
   </si>
   <si>
@@ -223,6 +223,66 @@
     <t>24557</t>
   </si>
   <si>
+    <t>79698</t>
+  </si>
+  <si>
+    <t>77501</t>
+  </si>
+  <si>
+    <t>74360</t>
+  </si>
+  <si>
+    <t>42631</t>
+  </si>
+  <si>
+    <t>20390</t>
+  </si>
+  <si>
+    <t>20570</t>
+  </si>
+  <si>
+    <t>26070</t>
+  </si>
+  <si>
+    <t>26570</t>
+  </si>
+  <si>
+    <t>25547</t>
+  </si>
+  <si>
+    <t>70441</t>
+  </si>
+  <si>
+    <t>36609</t>
+  </si>
+  <si>
+    <t>31738</t>
+  </si>
+  <si>
+    <t>29079</t>
+  </si>
+  <si>
+    <t>29368</t>
+  </si>
+  <si>
+    <t>32233</t>
+  </si>
+  <si>
+    <t>32209</t>
+  </si>
+  <si>
+    <t>28170</t>
+  </si>
+  <si>
+    <t>27605</t>
+  </si>
+  <si>
+    <t>39146</t>
+  </si>
+  <si>
+    <t>21817</t>
+  </si>
+  <si>
     <t>66546</t>
   </si>
   <si>
@@ -232,10 +292,40 @@
     <t>66212</t>
   </si>
   <si>
-    <t>79698</t>
-  </si>
-  <si>
-    <t>77501</t>
+    <t>49862</t>
+  </si>
+  <si>
+    <t>48184</t>
+  </si>
+  <si>
+    <t>49752</t>
+  </si>
+  <si>
+    <t>45342</t>
+  </si>
+  <si>
+    <t>64074</t>
+  </si>
+  <si>
+    <t>64840</t>
+  </si>
+  <si>
+    <t>64738</t>
+  </si>
+  <si>
+    <t>62520</t>
+  </si>
+  <si>
+    <t>50624</t>
+  </si>
+  <si>
+    <t>68631</t>
+  </si>
+  <si>
+    <t>68007</t>
+  </si>
+  <si>
+    <t>56023</t>
   </si>
   <si>
     <t>85275</t>
@@ -244,123 +334,33 @@
     <t>97013</t>
   </si>
   <si>
-    <t>74360</t>
-  </si>
-  <si>
-    <t>49862</t>
-  </si>
-  <si>
-    <t>48184</t>
-  </si>
-  <si>
-    <t>49752</t>
-  </si>
-  <si>
-    <t>42631</t>
-  </si>
-  <si>
-    <t>45342</t>
-  </si>
-  <si>
-    <t>20390</t>
-  </si>
-  <si>
-    <t>20570</t>
+    <t>93438</t>
+  </si>
+  <si>
+    <t>95172</t>
+  </si>
+  <si>
+    <t>83856</t>
   </si>
   <si>
     <t>11789</t>
   </si>
   <si>
-    <t>26070</t>
-  </si>
-  <si>
-    <t>26570</t>
-  </si>
-  <si>
-    <t>25547</t>
-  </si>
-  <si>
-    <t>93438</t>
-  </si>
-  <si>
-    <t>95172</t>
-  </si>
-  <si>
-    <t>70441</t>
-  </si>
-  <si>
-    <t>36609</t>
-  </si>
-  <si>
     <t>06016</t>
   </si>
   <si>
     <t>06087</t>
   </si>
   <si>
-    <t>31738</t>
-  </si>
-  <si>
-    <t>64074</t>
-  </si>
-  <si>
-    <t>64840</t>
-  </si>
-  <si>
-    <t>64738</t>
-  </si>
-  <si>
-    <t>62520</t>
-  </si>
-  <si>
-    <t>29079</t>
-  </si>
-  <si>
-    <t>29368</t>
-  </si>
-  <si>
-    <t>32233</t>
-  </si>
-  <si>
-    <t>32209</t>
-  </si>
-  <si>
     <t>15428</t>
   </si>
   <si>
-    <t>83856</t>
-  </si>
-  <si>
     <t>02493</t>
   </si>
   <si>
-    <t>28170</t>
-  </si>
-  <si>
-    <t>27605</t>
-  </si>
-  <si>
-    <t>50624</t>
-  </si>
-  <si>
-    <t>68631</t>
-  </si>
-  <si>
-    <t>68007</t>
-  </si>
-  <si>
-    <t>39146</t>
-  </si>
-  <si>
     <t>04097</t>
   </si>
   <si>
-    <t>56023</t>
-  </si>
-  <si>
-    <t>21817</t>
-  </si>
-  <si>
     <t>Charlottesville</t>
   </si>
   <si>
@@ -373,6 +373,63 @@
     <t>Gretna</t>
   </si>
   <si>
+    <t>Abilene</t>
+  </si>
+  <si>
+    <t>Pasadena</t>
+  </si>
+  <si>
+    <t>Picher</t>
+  </si>
+  <si>
+    <t>Marshes Siding</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Wellsburg</t>
+  </si>
+  <si>
+    <t>Fairview</t>
+  </si>
+  <si>
+    <t>Pecks Mill</t>
+  </si>
+  <si>
+    <t>Greensburg</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Coolidge</t>
+  </si>
+  <si>
+    <t>Lydia</t>
+  </si>
+  <si>
+    <t>Mayo</t>
+  </si>
+  <si>
+    <t>Atlantic Beach</t>
+  </si>
+  <si>
+    <t>Jacksonville</t>
+  </si>
+  <si>
+    <t>Wadesboro</t>
+  </si>
+  <si>
+    <t>Raleigh</t>
+  </si>
+  <si>
+    <t>Pickens</t>
+  </si>
+  <si>
+    <t>Crisfield</t>
+  </si>
+  <si>
     <t>Wakarusa</t>
   </si>
   <si>
@@ -382,10 +439,40 @@
     <t>Shawnee Mission</t>
   </si>
   <si>
-    <t>Abilene</t>
-  </si>
-  <si>
-    <t>Pasadena</t>
+    <t>Munising</t>
+  </si>
+  <si>
+    <t>Wayne</t>
+  </si>
+  <si>
+    <t>Kinross</t>
+  </si>
+  <si>
+    <t>Miamisburg</t>
+  </si>
+  <si>
+    <t>Napoleon</t>
+  </si>
+  <si>
+    <t>Diamond</t>
+  </si>
+  <si>
+    <t>Collins</t>
+  </si>
+  <si>
+    <t>Dawson</t>
+  </si>
+  <si>
+    <t>Dike</t>
+  </si>
+  <si>
+    <t>Creston</t>
+  </si>
+  <si>
+    <t>Bennington</t>
+  </si>
+  <si>
+    <t>Delavan</t>
   </si>
   <si>
     <t>Mesa</t>
@@ -394,124 +481,94 @@
     <t>Canby</t>
   </si>
   <si>
-    <t>Picher</t>
-  </si>
-  <si>
-    <t>Munising</t>
-  </si>
-  <si>
-    <t>Wayne</t>
-  </si>
-  <si>
-    <t>Kinross</t>
-  </si>
-  <si>
-    <t>Marshes Siding</t>
-  </si>
-  <si>
-    <t>Miamisburg</t>
-  </si>
-  <si>
-    <t>Washington</t>
+    <t>Lompoc</t>
+  </si>
+  <si>
+    <t>San Jose</t>
+  </si>
+  <si>
+    <t>Priest River</t>
   </si>
   <si>
     <t>Sound Beach</t>
   </si>
   <si>
-    <t>Wellsburg</t>
-  </si>
-  <si>
-    <t>Fairview</t>
-  </si>
-  <si>
-    <t>Pecks Mill</t>
-  </si>
-  <si>
-    <t>Lompoc</t>
-  </si>
-  <si>
-    <t>San Jose</t>
-  </si>
-  <si>
-    <t>Greensburg</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
     <t>Broad Brook</t>
   </si>
   <si>
     <t>Unionville</t>
   </si>
   <si>
-    <t>Coolidge</t>
-  </si>
-  <si>
-    <t>Napoleon</t>
-  </si>
-  <si>
-    <t>Diamond</t>
-  </si>
-  <si>
-    <t>Collins</t>
-  </si>
-  <si>
-    <t>Dawson</t>
-  </si>
-  <si>
-    <t>Lydia</t>
-  </si>
-  <si>
-    <t>Mayo</t>
-  </si>
-  <si>
-    <t>Atlantic Beach</t>
-  </si>
-  <si>
-    <t>Jacksonville</t>
-  </si>
-  <si>
-    <t>Priest River</t>
-  </si>
-  <si>
     <t>Weston</t>
   </si>
   <si>
-    <t>Wadesboro</t>
-  </si>
-  <si>
-    <t>Raleigh</t>
-  </si>
-  <si>
-    <t>Dike</t>
-  </si>
-  <si>
-    <t>Creston</t>
-  </si>
-  <si>
-    <t>Bennington</t>
-  </si>
-  <si>
-    <t>Pickens</t>
-  </si>
-  <si>
     <t>North Yarmouth</t>
   </si>
   <si>
-    <t>Delavan</t>
-  </si>
-  <si>
-    <t>Crisfield</t>
-  </si>
-  <si>
     <t>VA</t>
   </si>
   <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>WV</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
     <t>KS</t>
   </si>
   <si>
-    <t>TX</t>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>MN</t>
   </si>
   <si>
     <t>AZ</t>
@@ -520,84 +577,27 @@
     <t>OR</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>MI</t>
-  </si>
-  <si>
-    <t>KY</t>
-  </si>
-  <si>
-    <t>OH</t>
-  </si>
-  <si>
-    <t>DC</t>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>NY</t>
   </si>
   <si>
-    <t>WV</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>LA</t>
-  </si>
-  <si>
-    <t>AL</t>
-  </si>
-  <si>
     <t>CT</t>
   </si>
   <si>
-    <t>GA</t>
-  </si>
-  <si>
-    <t>MO</t>
-  </si>
-  <si>
-    <t>IL</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>FL</t>
-  </si>
-  <si>
     <t>PA</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>MA</t>
   </si>
   <si>
-    <t>NC</t>
-  </si>
-  <si>
-    <t>IA</t>
-  </si>
-  <si>
-    <t>NE</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
     <t>ME</t>
   </si>
   <si>
-    <t>MN</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
     <t>AH5590</t>
   </si>
   <si>
@@ -610,6 +610,66 @@
     <t>WL5283</t>
   </si>
   <si>
+    <t>YR6861</t>
+  </si>
+  <si>
+    <t>YA6348</t>
+  </si>
+  <si>
+    <t>KK6153</t>
+  </si>
+  <si>
+    <t>WA1826</t>
+  </si>
+  <si>
+    <t>NS1312</t>
+  </si>
+  <si>
+    <t>ZJ6565</t>
+  </si>
+  <si>
+    <t>OF9673</t>
+  </si>
+  <si>
+    <t>MN7927</t>
+  </si>
+  <si>
+    <t>EH2638</t>
+  </si>
+  <si>
+    <t>VG4175</t>
+  </si>
+  <si>
+    <t>VJ0735</t>
+  </si>
+  <si>
+    <t>GU9612</t>
+  </si>
+  <si>
+    <t>MW1000</t>
+  </si>
+  <si>
+    <t>VV3110</t>
+  </si>
+  <si>
+    <t>BX6191</t>
+  </si>
+  <si>
+    <t>KX0489</t>
+  </si>
+  <si>
+    <t>RJ3363</t>
+  </si>
+  <si>
+    <t>OC5697</t>
+  </si>
+  <si>
+    <t>KI6467</t>
+  </si>
+  <si>
+    <t>SC3651</t>
+  </si>
+  <si>
     <t>OL0453</t>
   </si>
   <si>
@@ -619,10 +679,40 @@
     <t>SA4443</t>
   </si>
   <si>
-    <t>YR6861</t>
-  </si>
-  <si>
-    <t>YA6348</t>
+    <t>MS1866</t>
+  </si>
+  <si>
+    <t>AF4815</t>
+  </si>
+  <si>
+    <t>AI9833</t>
+  </si>
+  <si>
+    <t>XJ1430</t>
+  </si>
+  <si>
+    <t>EB0265</t>
+  </si>
+  <si>
+    <t>UJ1486</t>
+  </si>
+  <si>
+    <t>MH1146</t>
+  </si>
+  <si>
+    <t>QZ1799</t>
+  </si>
+  <si>
+    <t>SD6881</t>
+  </si>
+  <si>
+    <t>HC3828</t>
+  </si>
+  <si>
+    <t>BS0601</t>
+  </si>
+  <si>
+    <t>SM6748</t>
   </si>
   <si>
     <t>AS3124</t>
@@ -631,121 +721,31 @@
     <t>DK1362</t>
   </si>
   <si>
-    <t>KK6153</t>
-  </si>
-  <si>
-    <t>MS1866</t>
-  </si>
-  <si>
-    <t>AF4815</t>
-  </si>
-  <si>
-    <t>AI9833</t>
-  </si>
-  <si>
-    <t>WA1826</t>
-  </si>
-  <si>
-    <t>XJ1430</t>
-  </si>
-  <si>
-    <t>NS1312</t>
-  </si>
-  <si>
-    <t>ZJ6565</t>
+    <t>FF0339</t>
+  </si>
+  <si>
+    <t>LA6029</t>
+  </si>
+  <si>
+    <t>KI8637</t>
   </si>
   <si>
     <t>IU9782</t>
   </si>
   <si>
-    <t>OF9673</t>
-  </si>
-  <si>
-    <t>MN7927</t>
-  </si>
-  <si>
-    <t>EH2638</t>
-  </si>
-  <si>
-    <t>FF0339</t>
-  </si>
-  <si>
-    <t>LA6029</t>
-  </si>
-  <si>
-    <t>VG4175</t>
-  </si>
-  <si>
-    <t>VJ0735</t>
-  </si>
-  <si>
     <t>EE4079</t>
   </si>
   <si>
     <t>VK4512</t>
   </si>
   <si>
-    <t>GU9612</t>
-  </si>
-  <si>
-    <t>EB0265</t>
-  </si>
-  <si>
-    <t>UJ1486</t>
-  </si>
-  <si>
-    <t>MH1146</t>
-  </si>
-  <si>
-    <t>QZ1799</t>
-  </si>
-  <si>
-    <t>MW1000</t>
-  </si>
-  <si>
-    <t>VV3110</t>
-  </si>
-  <si>
-    <t>BX6191</t>
-  </si>
-  <si>
-    <t>KX0489</t>
-  </si>
-  <si>
     <t>GU6442</t>
   </si>
   <si>
-    <t>KI8637</t>
-  </si>
-  <si>
     <t>HB1781</t>
   </si>
   <si>
-    <t>RJ3363</t>
-  </si>
-  <si>
-    <t>OC5697</t>
-  </si>
-  <si>
-    <t>SD6881</t>
-  </si>
-  <si>
-    <t>HC3828</t>
-  </si>
-  <si>
-    <t>BS0601</t>
-  </si>
-  <si>
-    <t>KI6467</t>
-  </si>
-  <si>
     <t>PU1364</t>
-  </si>
-  <si>
-    <t>SM6748</t>
-  </si>
-  <si>
-    <t>SC3651</t>
   </si>
   <si>
     <t>SOUTH</t>
@@ -1218,7 +1218,7 @@
         <v>0.7</v>
       </c>
       <c r="L2">
-        <v>9938</v>
+        <v>9937.5</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1256,7 +1256,7 @@
         <v>0.7</v>
       </c>
       <c r="L3">
-        <v>8177</v>
+        <v>8176.9</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1294,7 +1294,7 @@
         <v>0.7</v>
       </c>
       <c r="L4">
-        <v>12178</v>
+        <v>12177.74</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1332,7 +1332,7 @@
         <v>0.7</v>
       </c>
       <c r="L5">
-        <v>10266</v>
+        <v>10265.66</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1355,22 +1355,22 @@
         <v>198</v>
       </c>
       <c r="G6">
-        <v>1158564</v>
+        <v>1663488</v>
       </c>
       <c r="H6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K6">
-        <v>5.4</v>
+        <v>0.7</v>
       </c>
       <c r="L6">
-        <v>9153</v>
+        <v>13141.56</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1393,22 +1393,22 @@
         <v>199</v>
       </c>
       <c r="G7">
-        <v>1163380</v>
+        <v>1440886</v>
       </c>
       <c r="H7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K7">
-        <v>5.4</v>
+        <v>0.7</v>
       </c>
       <c r="L7">
-        <v>9191</v>
+        <v>11383</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1416,7 +1416,7 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
         <v>71</v>
@@ -1425,28 +1425,28 @@
         <v>121</v>
       </c>
       <c r="E8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F8" t="s">
         <v>200</v>
       </c>
       <c r="G8">
-        <v>6796068</v>
+        <v>970886</v>
       </c>
       <c r="H8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K8">
-        <v>5.4</v>
+        <v>0.7</v>
       </c>
       <c r="L8">
-        <v>53689</v>
+        <v>7670</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1463,13 +1463,13 @@
         <v>122</v>
       </c>
       <c r="E9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F9" t="s">
         <v>201</v>
       </c>
       <c r="G9">
-        <v>1663488</v>
+        <v>1101414</v>
       </c>
       <c r="H9" t="s">
         <v>244</v>
@@ -1484,7 +1484,7 @@
         <v>0.7</v>
       </c>
       <c r="L9">
-        <v>13142</v>
+        <v>8701.17</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1501,13 +1501,13 @@
         <v>123</v>
       </c>
       <c r="E10" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F10" t="s">
         <v>202</v>
       </c>
       <c r="G10">
-        <v>1440886</v>
+        <v>1010872</v>
       </c>
       <c r="H10" t="s">
         <v>244</v>
@@ -1522,7 +1522,7 @@
         <v>0.7</v>
       </c>
       <c r="L10">
-        <v>11383</v>
+        <v>7985.89</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1530,37 +1530,37 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
         <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F11" t="s">
         <v>203</v>
       </c>
       <c r="G11">
-        <v>1193560</v>
+        <v>3817416</v>
       </c>
       <c r="H11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K11">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="L11">
-        <v>9429</v>
+        <v>30157.59</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1574,31 +1574,31 @@
         <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F12" t="s">
         <v>204</v>
       </c>
       <c r="G12">
-        <v>958040</v>
+        <v>1398454</v>
       </c>
       <c r="H12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K12">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="L12">
-        <v>7569</v>
+        <v>11047.79</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1612,7 +1612,7 @@
         <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E13" t="s">
         <v>168</v>
@@ -1621,7 +1621,7 @@
         <v>205</v>
       </c>
       <c r="G13">
-        <v>970886</v>
+        <v>1020236</v>
       </c>
       <c r="H13" t="s">
         <v>244</v>
@@ -1636,7 +1636,7 @@
         <v>0.7</v>
       </c>
       <c r="L13">
-        <v>7670</v>
+        <v>8059.86</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1650,31 +1650,31 @@
         <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F14" t="s">
         <v>206</v>
       </c>
       <c r="G14">
-        <v>1271136</v>
+        <v>1324662</v>
       </c>
       <c r="H14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K14">
-        <v>5.4</v>
+        <v>0.7</v>
       </c>
       <c r="L14">
-        <v>10042</v>
+        <v>10464.83</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1682,13 +1682,13 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
         <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E15" t="s">
         <v>169</v>
@@ -1697,22 +1697,22 @@
         <v>207</v>
       </c>
       <c r="G15">
-        <v>1612006</v>
+        <v>6557928</v>
       </c>
       <c r="H15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K15">
-        <v>5.4</v>
+        <v>0.7</v>
       </c>
       <c r="L15">
-        <v>12735</v>
+        <v>51807.63</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1726,31 +1726,31 @@
         <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F16" t="s">
         <v>208</v>
       </c>
       <c r="G16">
-        <v>1580248</v>
+        <v>1429086</v>
       </c>
       <c r="H16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K16">
-        <v>5.4</v>
+        <v>0.7</v>
       </c>
       <c r="L16">
-        <v>12484</v>
+        <v>11289.78</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1764,16 +1764,16 @@
         <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F17" t="s">
         <v>209</v>
       </c>
       <c r="G17">
-        <v>1101414</v>
+        <v>1020258</v>
       </c>
       <c r="H17" t="s">
         <v>244</v>
@@ -1788,7 +1788,7 @@
         <v>0.7</v>
       </c>
       <c r="L17">
-        <v>8701</v>
+        <v>8060.04</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1802,31 +1802,31 @@
         <v>81</v>
       </c>
       <c r="D18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F18" t="s">
         <v>210</v>
       </c>
       <c r="G18">
-        <v>942044</v>
+        <v>1435288</v>
       </c>
       <c r="H18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K18">
-        <v>5.4</v>
+        <v>0.7</v>
       </c>
       <c r="L18">
-        <v>7442</v>
+        <v>11338.78</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1840,7 +1840,7 @@
         <v>82</v>
       </c>
       <c r="D19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E19" t="s">
         <v>172</v>
@@ -1849,7 +1849,7 @@
         <v>211</v>
       </c>
       <c r="G19">
-        <v>1010872</v>
+        <v>814596</v>
       </c>
       <c r="H19" t="s">
         <v>244</v>
@@ -1864,7 +1864,7 @@
         <v>0.7</v>
       </c>
       <c r="L19">
-        <v>7986</v>
+        <v>6435.31</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1872,7 +1872,7 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
         <v>83</v>
@@ -1881,13 +1881,13 @@
         <v>132</v>
       </c>
       <c r="E20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F20" t="s">
         <v>212</v>
       </c>
       <c r="G20">
-        <v>3817416</v>
+        <v>1042578</v>
       </c>
       <c r="H20" t="s">
         <v>244</v>
@@ -1902,7 +1902,7 @@
         <v>0.7</v>
       </c>
       <c r="L20">
-        <v>30158</v>
+        <v>8236.370000000001</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1910,7 +1910,7 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
         <v>84</v>
@@ -1925,22 +1925,22 @@
         <v>213</v>
       </c>
       <c r="G21">
-        <v>1192852</v>
+        <v>3185196</v>
       </c>
       <c r="H21" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I21" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J21" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K21">
-        <v>5.6</v>
+        <v>0.7</v>
       </c>
       <c r="L21">
-        <v>9424</v>
+        <v>25163.05</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1948,7 +1948,7 @@
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
         <v>85</v>
@@ -1963,7 +1963,7 @@
         <v>214</v>
       </c>
       <c r="G22">
-        <v>1398454</v>
+        <v>7008576</v>
       </c>
       <c r="H22" t="s">
         <v>244</v>
@@ -1978,7 +1978,7 @@
         <v>0.7</v>
       </c>
       <c r="L22">
-        <v>11048</v>
+        <v>55367.75</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2001,7 +2001,7 @@
         <v>215</v>
       </c>
       <c r="G23">
-        <v>1020236</v>
+        <v>1168464</v>
       </c>
       <c r="H23" t="s">
         <v>244</v>
@@ -2016,7 +2016,7 @@
         <v>0.7</v>
       </c>
       <c r="L23">
-        <v>8060</v>
+        <v>9230.870000000001</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2033,13 +2033,13 @@
         <v>136</v>
       </c>
       <c r="E24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F24" t="s">
         <v>216</v>
       </c>
       <c r="G24">
-        <v>1324662</v>
+        <v>1333056</v>
       </c>
       <c r="H24" t="s">
         <v>244</v>
@@ -2054,7 +2054,7 @@
         <v>0.7</v>
       </c>
       <c r="L24">
-        <v>10465</v>
+        <v>10531.14</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2071,28 +2071,28 @@
         <v>137</v>
       </c>
       <c r="E25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F25" t="s">
         <v>217</v>
       </c>
       <c r="G25">
-        <v>1184974</v>
+        <v>916094</v>
       </c>
       <c r="H25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I25" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J25" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K25">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="L25">
-        <v>9361</v>
+        <v>7237.14</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2109,28 +2109,28 @@
         <v>138</v>
       </c>
       <c r="E26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F26" t="s">
         <v>218</v>
       </c>
       <c r="G26">
-        <v>1719822</v>
+        <v>1158564</v>
       </c>
       <c r="H26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K26">
-        <v>3.8</v>
+        <v>5.4</v>
       </c>
       <c r="L26">
-        <v>13587</v>
+        <v>9152.66</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2138,7 +2138,7 @@
         <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
         <v>90</v>
@@ -2147,28 +2147,28 @@
         <v>139</v>
       </c>
       <c r="E27" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F27" t="s">
         <v>219</v>
       </c>
       <c r="G27">
-        <v>6557928</v>
+        <v>1163380</v>
       </c>
       <c r="H27" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I27" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J27" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K27">
-        <v>0.7</v>
+        <v>5.4</v>
       </c>
       <c r="L27">
-        <v>51808</v>
+        <v>9190.700000000001</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2176,7 +2176,7 @@
         <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
         <v>91</v>
@@ -2191,22 +2191,22 @@
         <v>220</v>
       </c>
       <c r="G28">
-        <v>1429086</v>
+        <v>6796068</v>
       </c>
       <c r="H28" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I28" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J28" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K28">
-        <v>0.7</v>
+        <v>5.4</v>
       </c>
       <c r="L28">
-        <v>11290</v>
+        <v>53688.94</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2229,22 +2229,22 @@
         <v>221</v>
       </c>
       <c r="G29">
-        <v>1559544</v>
+        <v>1271136</v>
       </c>
       <c r="H29" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I29" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J29" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K29">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="L29">
-        <v>12320</v>
+        <v>10041.97</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2267,22 +2267,22 @@
         <v>222</v>
       </c>
       <c r="G30">
-        <v>1370404</v>
+        <v>1612006</v>
       </c>
       <c r="H30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I30" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J30" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K30">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="L30">
-        <v>10826</v>
+        <v>12734.85</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2299,28 +2299,28 @@
         <v>143</v>
       </c>
       <c r="E31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F31" t="s">
         <v>223</v>
       </c>
       <c r="G31">
-        <v>1020258</v>
+        <v>1580248</v>
       </c>
       <c r="H31" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I31" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J31" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K31">
-        <v>0.7</v>
+        <v>5.4</v>
       </c>
       <c r="L31">
-        <v>8060</v>
+        <v>12483.96</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2337,13 +2337,13 @@
         <v>144</v>
       </c>
       <c r="E32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F32" t="s">
         <v>224</v>
       </c>
       <c r="G32">
-        <v>746216</v>
+        <v>942044</v>
       </c>
       <c r="H32" t="s">
         <v>245</v>
@@ -2358,7 +2358,7 @@
         <v>5.4</v>
       </c>
       <c r="L32">
-        <v>5895</v>
+        <v>7442.15</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2381,7 +2381,7 @@
         <v>225</v>
       </c>
       <c r="G33">
-        <v>1162036</v>
+        <v>746216</v>
       </c>
       <c r="H33" t="s">
         <v>245</v>
@@ -2396,7 +2396,7 @@
         <v>5.4</v>
       </c>
       <c r="L33">
-        <v>9180</v>
+        <v>5895.11</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2404,7 +2404,7 @@
         <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C34" t="s">
         <v>97</v>
@@ -2419,7 +2419,7 @@
         <v>226</v>
       </c>
       <c r="G34">
-        <v>8807964</v>
+        <v>1162036</v>
       </c>
       <c r="H34" t="s">
         <v>245</v>
@@ -2434,7 +2434,7 @@
         <v>5.4</v>
       </c>
       <c r="L34">
-        <v>69583</v>
+        <v>9180.08</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2442,7 +2442,7 @@
         <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C35" t="s">
         <v>98</v>
@@ -2451,13 +2451,13 @@
         <v>147</v>
       </c>
       <c r="E35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F35" t="s">
         <v>227</v>
       </c>
       <c r="G35">
-        <v>6958500</v>
+        <v>8807964</v>
       </c>
       <c r="H35" t="s">
         <v>245</v>
@@ -2472,7 +2472,7 @@
         <v>5.4</v>
       </c>
       <c r="L35">
-        <v>54972</v>
+        <v>69582.92</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2480,7 +2480,7 @@
         <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
         <v>99</v>
@@ -2489,28 +2489,28 @@
         <v>148</v>
       </c>
       <c r="E36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F36" t="s">
         <v>228</v>
       </c>
       <c r="G36">
-        <v>1435288</v>
+        <v>6958500</v>
       </c>
       <c r="H36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I36" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J36" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K36">
-        <v>0.7</v>
+        <v>5.4</v>
       </c>
       <c r="L36">
-        <v>11339</v>
+        <v>54972.15</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2518,7 +2518,7 @@
         <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C37" t="s">
         <v>100</v>
@@ -2533,22 +2533,22 @@
         <v>229</v>
       </c>
       <c r="G37">
-        <v>814596</v>
+        <v>6548220</v>
       </c>
       <c r="H37" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I37" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J37" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K37">
-        <v>0.7</v>
+        <v>5.4</v>
       </c>
       <c r="L37">
-        <v>6435</v>
+        <v>51730.94</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2556,7 +2556,7 @@
         <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C38" t="s">
         <v>101</v>
@@ -2571,22 +2571,22 @@
         <v>230</v>
       </c>
       <c r="G38">
-        <v>1042578</v>
+        <v>9121596</v>
       </c>
       <c r="H38" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I38" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J38" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K38">
-        <v>0.7</v>
+        <v>5.4</v>
       </c>
       <c r="L38">
-        <v>8236</v>
+        <v>72060.61</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2594,7 +2594,7 @@
         <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C39" t="s">
         <v>102</v>
@@ -2609,22 +2609,22 @@
         <v>231</v>
       </c>
       <c r="G39">
-        <v>3185196</v>
+        <v>1238732</v>
       </c>
       <c r="H39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I39" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J39" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K39">
-        <v>0.7</v>
+        <v>5.4</v>
       </c>
       <c r="L39">
-        <v>25163</v>
+        <v>9785.98</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2632,13 +2632,13 @@
         <v>50</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C40" t="s">
         <v>103</v>
       </c>
       <c r="D40" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E40" t="s">
         <v>184</v>
@@ -2647,22 +2647,22 @@
         <v>232</v>
       </c>
       <c r="G40">
-        <v>6222564</v>
+        <v>6833484</v>
       </c>
       <c r="H40" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I40" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J40" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K40">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="L40">
-        <v>49158</v>
+        <v>53984.52</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2670,13 +2670,13 @@
         <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C41" t="s">
         <v>104</v>
       </c>
       <c r="D41" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E41" t="s">
         <v>185</v>
@@ -2685,7 +2685,7 @@
         <v>233</v>
       </c>
       <c r="G41">
-        <v>7853376</v>
+        <v>1193560</v>
       </c>
       <c r="H41" t="s">
         <v>246</v>
@@ -2700,7 +2700,7 @@
         <v>3.8</v>
       </c>
       <c r="L41">
-        <v>62042</v>
+        <v>9429.120000000001</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2714,7 +2714,7 @@
         <v>105</v>
       </c>
       <c r="D42" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E42" t="s">
         <v>186</v>
@@ -2723,22 +2723,22 @@
         <v>234</v>
       </c>
       <c r="G42">
-        <v>974088</v>
+        <v>958040</v>
       </c>
       <c r="H42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K42">
-        <v>5.6</v>
+        <v>3.8</v>
       </c>
       <c r="L42">
-        <v>7695</v>
+        <v>7568.52</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2746,13 +2746,13 @@
         <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C43" t="s">
         <v>106</v>
       </c>
       <c r="D43" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E43" t="s">
         <v>187</v>
@@ -2761,22 +2761,22 @@
         <v>235</v>
       </c>
       <c r="G43">
-        <v>7008576</v>
+        <v>1184974</v>
       </c>
       <c r="H43" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="I43" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J43" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K43">
-        <v>0.7</v>
+        <v>3.8</v>
       </c>
       <c r="L43">
-        <v>55368</v>
+        <v>9361.290000000001</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2790,7 +2790,7 @@
         <v>107</v>
       </c>
       <c r="D44" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E44" t="s">
         <v>187</v>
@@ -2799,22 +2799,22 @@
         <v>236</v>
       </c>
       <c r="G44">
-        <v>1168464</v>
+        <v>1719822</v>
       </c>
       <c r="H44" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="I44" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J44" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K44">
-        <v>0.7</v>
+        <v>3.8</v>
       </c>
       <c r="L44">
-        <v>9231</v>
+        <v>13586.59</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2822,13 +2822,13 @@
         <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C45" t="s">
         <v>108</v>
       </c>
       <c r="D45" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E45" t="s">
         <v>188</v>
@@ -2837,22 +2837,22 @@
         <v>237</v>
       </c>
       <c r="G45">
-        <v>6548220</v>
+        <v>7853376</v>
       </c>
       <c r="H45" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I45" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J45" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K45">
-        <v>5.4</v>
+        <v>3.8</v>
       </c>
       <c r="L45">
-        <v>51731</v>
+        <v>62041.67</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2860,13 +2860,13 @@
         <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C46" t="s">
         <v>109</v>
       </c>
       <c r="D46" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E46" t="s">
         <v>189</v>
@@ -2875,22 +2875,22 @@
         <v>238</v>
       </c>
       <c r="G46">
-        <v>9121596</v>
+        <v>1192852</v>
       </c>
       <c r="H46" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="I46" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="J46" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K46">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="L46">
-        <v>72061</v>
+        <v>9423.530000000001</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2904,31 +2904,31 @@
         <v>110</v>
       </c>
       <c r="D47" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E47" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F47" t="s">
         <v>239</v>
       </c>
       <c r="G47">
-        <v>1238732</v>
+        <v>1559544</v>
       </c>
       <c r="H47" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="I47" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="J47" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K47">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="L47">
-        <v>9786</v>
+        <v>12320.4</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2942,7 +2942,7 @@
         <v>111</v>
       </c>
       <c r="D48" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E48" t="s">
         <v>190</v>
@@ -2951,22 +2951,22 @@
         <v>240</v>
       </c>
       <c r="G48">
-        <v>1333056</v>
+        <v>1370404</v>
       </c>
       <c r="H48" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I48" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="J48" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K48">
-        <v>0.7</v>
+        <v>5.6</v>
       </c>
       <c r="L48">
-        <v>10531</v>
+        <v>10826.19</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2974,13 +2974,13 @@
         <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C49" t="s">
         <v>112</v>
       </c>
       <c r="D49" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="E49" t="s">
         <v>191</v>
@@ -2989,7 +2989,7 @@
         <v>241</v>
       </c>
       <c r="G49">
-        <v>1530912</v>
+        <v>6222564</v>
       </c>
       <c r="H49" t="s">
         <v>247</v>
@@ -3004,7 +3004,7 @@
         <v>5.6</v>
       </c>
       <c r="L49">
-        <v>12094</v>
+        <v>49158.26</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3012,7 +3012,7 @@
         <v>60</v>
       </c>
       <c r="B50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C50" t="s">
         <v>113</v>
@@ -3027,22 +3027,22 @@
         <v>242</v>
       </c>
       <c r="G50">
-        <v>6833484</v>
+        <v>974088</v>
       </c>
       <c r="H50" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="I50" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="J50" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K50">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="L50">
-        <v>53985</v>
+        <v>7695.3</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3065,22 +3065,22 @@
         <v>243</v>
       </c>
       <c r="G51">
-        <v>916094</v>
+        <v>1530912</v>
       </c>
       <c r="H51" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I51" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="J51" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K51">
-        <v>0.7</v>
+        <v>5.6</v>
       </c>
       <c r="L51">
-        <v>7237</v>
+        <v>12094.2</v>
       </c>
     </row>
   </sheetData>
